--- a/VersionRecords/Version 5.1.0.1 20161110/版本Bug和特性计划及评审表v5.1.0.1_极光组.xlsx
+++ b/VersionRecords/Version 5.1.0.1 20161110/版本Bug和特性计划及评审表v5.1.0.1_极光组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.0.1 20161110\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.0.1 新特性|Fix Bug'!$A$1:$U$10</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -122,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -459,74 +464,14 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -538,7 +483,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -858,14 +803,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2:R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="6" customWidth="1"/>
     <col min="2" max="3" width="12.375" style="6" customWidth="1"/>
@@ -891,7 +836,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="27">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -956,7 +901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1004,7 +949,7 @@
       <c r="U2" s="23"/>
       <c r="V2" s="30"/>
     </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
+    <row r="3" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1028,7 +973,7 @@
       <c r="U3" s="31"/>
       <c r="V3" s="32"/>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
+    <row r="4" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1052,7 +997,7 @@
       <c r="U4" s="31"/>
       <c r="V4" s="32"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -1076,7 +1021,7 @@
       <c r="U5" s="31"/>
       <c r="V5" s="32"/>
     </row>
-    <row r="6" spans="1:22" s="5" customFormat="1" ht="22.5" customHeight="1">
+    <row r="6" spans="1:22" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1100,7 +1045,7 @@
       <c r="U6" s="33"/>
       <c r="V6" s="34"/>
     </row>
-    <row r="7" spans="1:22" s="5" customFormat="1" ht="22.5" customHeight="1">
+    <row r="7" spans="1:22" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -1124,7 +1069,7 @@
       <c r="U7" s="33"/>
       <c r="V7" s="34"/>
     </row>
-    <row r="8" spans="1:22" s="5" customFormat="1" ht="22.5" customHeight="1">
+    <row r="8" spans="1:22" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -1148,7 +1093,7 @@
       <c r="U8" s="33"/>
       <c r="V8" s="34"/>
     </row>
-    <row r="9" spans="1:22" s="5" customFormat="1" ht="22.5" customHeight="1">
+    <row r="9" spans="1:22" s="5" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1172,7 +1117,7 @@
       <c r="U9" s="33"/>
       <c r="V9" s="34"/>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" ht="18.75" customHeight="1">
+    <row r="10" spans="1:22" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1196,7 +1141,7 @@
       <c r="U10" s="33"/>
       <c r="V10" s="34"/>
     </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" ht="16.5">
+    <row r="11" spans="1:22" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1220,7 +1165,7 @@
       <c r="U11" s="33"/>
       <c r="V11" s="34"/>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" ht="16.5">
+    <row r="12" spans="1:22" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1244,7 +1189,7 @@
       <c r="U12" s="33"/>
       <c r="V12" s="34"/>
     </row>
-    <row r="13" spans="1:22" s="4" customFormat="1" ht="19.5">
+    <row r="13" spans="1:22" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -1268,7 +1213,7 @@
       <c r="U13" s="31"/>
       <c r="V13" s="32"/>
     </row>
-    <row r="14" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="14" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1292,7 +1237,7 @@
       <c r="U14" s="31"/>
       <c r="V14" s="32"/>
     </row>
-    <row r="15" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="15" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1316,7 +1261,7 @@
       <c r="U15" s="31"/>
       <c r="V15" s="32"/>
     </row>
-    <row r="16" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="16" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1340,7 +1285,7 @@
       <c r="U16" s="31"/>
       <c r="V16" s="32"/>
     </row>
-    <row r="17" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="17" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1364,7 +1309,7 @@
       <c r="U17" s="31"/>
       <c r="V17" s="32"/>
     </row>
-    <row r="18" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="18" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1388,7 +1333,7 @@
       <c r="U18" s="31"/>
       <c r="V18" s="32"/>
     </row>
-    <row r="19" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="19" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1412,7 +1357,7 @@
       <c r="U19" s="31"/>
       <c r="V19" s="32"/>
     </row>
-    <row r="20" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="20" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1436,7 +1381,7 @@
       <c r="U20" s="31"/>
       <c r="V20" s="32"/>
     </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="21" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1460,7 +1405,7 @@
       <c r="U21" s="31"/>
       <c r="V21" s="32"/>
     </row>
-    <row r="22" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="22" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1484,7 +1429,7 @@
       <c r="U22" s="31"/>
       <c r="V22" s="32"/>
     </row>
-    <row r="23" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="23" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1508,7 +1453,7 @@
       <c r="U23" s="31"/>
       <c r="V23" s="32"/>
     </row>
-    <row r="24" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="24" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1532,7 +1477,7 @@
       <c r="U24" s="31"/>
       <c r="V24" s="32"/>
     </row>
-    <row r="25" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="25" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -1556,7 +1501,7 @@
       <c r="U25" s="31"/>
       <c r="V25" s="32"/>
     </row>
-    <row r="26" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="26" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -1580,7 +1525,7 @@
       <c r="U26" s="31"/>
       <c r="V26" s="32"/>
     </row>
-    <row r="27" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="27" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -1604,7 +1549,7 @@
       <c r="U27" s="31"/>
       <c r="V27" s="32"/>
     </row>
-    <row r="28" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="28" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1628,7 +1573,7 @@
       <c r="U28" s="31"/>
       <c r="V28" s="32"/>
     </row>
-    <row r="29" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="29" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1652,7 +1597,7 @@
       <c r="U29" s="31"/>
       <c r="V29" s="32"/>
     </row>
-    <row r="30" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="30" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1676,7 +1621,7 @@
       <c r="U30" s="31"/>
       <c r="V30" s="32"/>
     </row>
-    <row r="31" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="31" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1700,7 +1645,7 @@
       <c r="U31" s="31"/>
       <c r="V31" s="32"/>
     </row>
-    <row r="32" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="32" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -1724,7 +1669,7 @@
       <c r="U32" s="31"/>
       <c r="V32" s="32"/>
     </row>
-    <row r="33" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="33" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -1748,7 +1693,7 @@
       <c r="U33" s="29"/>
       <c r="V33" s="32"/>
     </row>
-    <row r="34" spans="1:22" s="4" customFormat="1" ht="16.5">
+    <row r="34" spans="1:22" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -1772,7 +1717,7 @@
       <c r="U34" s="29"/>
       <c r="V34" s="32"/>
     </row>
-    <row r="35" spans="1:22" ht="16.5">
+    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
@@ -1795,7 +1740,7 @@
       <c r="T35" s="21"/>
       <c r="U35" s="18"/>
     </row>
-    <row r="36" spans="1:22" ht="16.5">
+    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
@@ -1818,7 +1763,7 @@
       <c r="T36" s="21"/>
       <c r="U36" s="18"/>
     </row>
-    <row r="37" spans="1:22" ht="16.5">
+    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
@@ -1841,7 +1786,7 @@
       <c r="T37" s="21"/>
       <c r="U37" s="18"/>
     </row>
-    <row r="38" spans="1:22" ht="16.5">
+    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
@@ -1864,7 +1809,7 @@
       <c r="T38" s="21"/>
       <c r="U38" s="18"/>
     </row>
-    <row r="39" spans="1:22" ht="16.5">
+    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -1887,7 +1832,7 @@
       <c r="T39" s="21"/>
       <c r="U39" s="18"/>
     </row>
-    <row r="40" spans="1:22" ht="16.5">
+    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -1910,7 +1855,7 @@
       <c r="T40" s="21"/>
       <c r="U40" s="18"/>
     </row>
-    <row r="41" spans="1:22" ht="16.5">
+    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -1933,7 +1878,7 @@
       <c r="T41" s="21"/>
       <c r="U41" s="18"/>
     </row>
-    <row r="42" spans="1:22" ht="16.5">
+    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -1956,7 +1901,7 @@
       <c r="T42" s="21"/>
       <c r="U42" s="18"/>
     </row>
-    <row r="43" spans="1:22" ht="16.5">
+    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -1979,7 +1924,7 @@
       <c r="T43" s="21"/>
       <c r="U43" s="18"/>
     </row>
-    <row r="44" spans="1:22" ht="16.5">
+    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -2002,7 +1947,7 @@
       <c r="T44" s="21"/>
       <c r="U44" s="18"/>
     </row>
-    <row r="45" spans="1:22" ht="16.5">
+    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -2025,7 +1970,7 @@
       <c r="T45" s="21"/>
       <c r="U45" s="18"/>
     </row>
-    <row r="46" spans="1:22" ht="16.5">
+    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -2048,7 +1993,7 @@
       <c r="T46" s="21"/>
       <c r="U46" s="18"/>
     </row>
-    <row r="47" spans="1:22" ht="16.5">
+    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -2071,7 +2016,7 @@
       <c r="T47" s="21"/>
       <c r="U47" s="18"/>
     </row>
-    <row r="48" spans="1:22" ht="16.5">
+    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -2094,7 +2039,7 @@
       <c r="T48" s="21"/>
       <c r="U48" s="18"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -2117,7 +2062,7 @@
       <c r="T49" s="21"/>
       <c r="U49" s="18"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -2140,7 +2085,7 @@
       <c r="T50" s="21"/>
       <c r="U50" s="18"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -2163,7 +2108,7 @@
       <c r="T51" s="21"/>
       <c r="U51" s="18"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -2186,7 +2131,7 @@
       <c r="T52" s="21"/>
       <c r="U52" s="18"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -2209,7 +2154,7 @@
       <c r="T53" s="21"/>
       <c r="U53" s="18"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -2232,7 +2177,7 @@
       <c r="T54" s="21"/>
       <c r="U54" s="18"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -2255,7 +2200,7 @@
       <c r="T55" s="21"/>
       <c r="U55" s="18"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -2278,7 +2223,7 @@
       <c r="T56" s="21"/>
       <c r="U56" s="18"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -2301,7 +2246,7 @@
       <c r="T57" s="21"/>
       <c r="U57" s="18"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -2324,7 +2269,7 @@
       <c r="T58" s="21"/>
       <c r="U58" s="18"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -2347,7 +2292,7 @@
       <c r="T59" s="21"/>
       <c r="U59" s="18"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -2370,7 +2315,7 @@
       <c r="T60" s="21"/>
       <c r="U60" s="18"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -2393,7 +2338,7 @@
       <c r="T61" s="21"/>
       <c r="U61" s="18"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -2416,7 +2361,7 @@
       <c r="T62" s="21"/>
       <c r="U62" s="18"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -2439,7 +2384,7 @@
       <c r="T63" s="21"/>
       <c r="U63" s="18"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="21"/>
@@ -2462,7 +2407,7 @@
       <c r="T64" s="21"/>
       <c r="U64" s="18"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -2485,7 +2430,7 @@
       <c r="T65" s="21"/>
       <c r="U65" s="18"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -2508,7 +2453,7 @@
       <c r="T66" s="21"/>
       <c r="U66" s="18"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="21"/>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
@@ -2531,7 +2476,7 @@
       <c r="T67" s="21"/>
       <c r="U67" s="18"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="21"/>
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
@@ -2554,7 +2499,7 @@
       <c r="T68" s="21"/>
       <c r="U68" s="18"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="21"/>
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
@@ -2577,7 +2522,7 @@
       <c r="T69" s="21"/>
       <c r="U69" s="18"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -2600,7 +2545,7 @@
       <c r="T70" s="21"/>
       <c r="U70" s="18"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -2623,7 +2568,7 @@
       <c r="T71" s="21"/>
       <c r="U71" s="18"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -2646,7 +2591,7 @@
       <c r="T72" s="21"/>
       <c r="U72" s="18"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -2669,7 +2614,7 @@
       <c r="T73" s="21"/>
       <c r="U73" s="18"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
@@ -2692,7 +2637,7 @@
       <c r="T74" s="21"/>
       <c r="U74" s="18"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5">
+    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -2715,7 +2660,7 @@
       <c r="T75" s="21"/>
       <c r="U75" s="18"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5">
+    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -2738,7 +2683,7 @@
       <c r="T76" s="21"/>
       <c r="U76" s="18"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5">
+    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -2761,7 +2706,7 @@
       <c r="T77" s="21"/>
       <c r="U77" s="18"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5">
+    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -2784,7 +2729,7 @@
       <c r="T78" s="21"/>
       <c r="U78" s="18"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5">
+    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -2807,7 +2752,7 @@
       <c r="T79" s="21"/>
       <c r="U79" s="18"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5">
+    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -2830,7 +2775,7 @@
       <c r="T80" s="21"/>
       <c r="U80" s="18"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5">
+    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -2853,7 +2798,7 @@
       <c r="T81" s="21"/>
       <c r="U81" s="18"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5">
+    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -2876,7 +2821,7 @@
       <c r="T82" s="21"/>
       <c r="U82" s="18"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5">
+    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -2899,7 +2844,7 @@
       <c r="T83" s="21"/>
       <c r="U83" s="18"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5">
+    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -2922,7 +2867,7 @@
       <c r="T84" s="21"/>
       <c r="U84" s="18"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5">
+    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -2945,7 +2890,7 @@
       <c r="T85" s="21"/>
       <c r="U85" s="18"/>
     </row>
-    <row r="86" spans="1:21" ht="16.5">
+    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -2968,7 +2913,7 @@
       <c r="T86" s="21"/>
       <c r="U86" s="18"/>
     </row>
-    <row r="87" spans="1:21" ht="16.5">
+    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -2991,7 +2936,7 @@
       <c r="T87" s="21"/>
       <c r="U87" s="18"/>
     </row>
-    <row r="88" spans="1:21" ht="16.5">
+    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -3014,7 +2959,7 @@
       <c r="T88" s="21"/>
       <c r="U88" s="18"/>
     </row>
-    <row r="89" spans="1:21" ht="16.5">
+    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -3037,7 +2982,7 @@
       <c r="T89" s="21"/>
       <c r="U89" s="18"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -3060,7 +3005,7 @@
       <c r="T90" s="21"/>
       <c r="U90" s="18"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -3083,7 +3028,7 @@
       <c r="T91" s="21"/>
       <c r="U91" s="18"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -3106,7 +3051,7 @@
       <c r="T92" s="21"/>
       <c r="U92" s="18"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -3129,7 +3074,7 @@
       <c r="T93" s="21"/>
       <c r="U93" s="18"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -3152,7 +3097,7 @@
       <c r="T94" s="21"/>
       <c r="U94" s="18"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -3175,7 +3120,7 @@
       <c r="T95" s="21"/>
       <c r="U95" s="18"/>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -3198,7 +3143,7 @@
       <c r="T96" s="21"/>
       <c r="U96" s="18"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -3221,7 +3166,7 @@
       <c r="T97" s="21"/>
       <c r="U97" s="18"/>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -3244,7 +3189,7 @@
       <c r="T98" s="21"/>
       <c r="U98" s="18"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -3267,7 +3212,7 @@
       <c r="T99" s="21"/>
       <c r="U99" s="18"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="21"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -3290,7 +3235,7 @@
       <c r="T100" s="21"/>
       <c r="U100" s="18"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -3313,7 +3258,7 @@
       <c r="T101" s="21"/>
       <c r="U101" s="18"/>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -3336,7 +3281,7 @@
       <c r="T102" s="21"/>
       <c r="U102" s="18"/>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -3359,7 +3304,7 @@
       <c r="T103" s="21"/>
       <c r="U103" s="18"/>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -3382,7 +3327,7 @@
       <c r="T104" s="21"/>
       <c r="U104" s="18"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -3405,7 +3350,7 @@
       <c r="T105" s="21"/>
       <c r="U105" s="18"/>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -3428,7 +3373,7 @@
       <c r="T106" s="21"/>
       <c r="U106" s="18"/>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A107" s="21"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -3451,7 +3396,7 @@
       <c r="T107" s="21"/>
       <c r="U107" s="18"/>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -3474,7 +3419,7 @@
       <c r="T108" s="21"/>
       <c r="U108" s="18"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -3497,7 +3442,7 @@
       <c r="T109" s="21"/>
       <c r="U109" s="18"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -3520,7 +3465,7 @@
       <c r="T110" s="21"/>
       <c r="U110" s="18"/>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -3543,7 +3488,7 @@
       <c r="T111" s="21"/>
       <c r="U111" s="18"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -3566,7 +3511,7 @@
       <c r="T112" s="21"/>
       <c r="U112" s="18"/>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -3589,7 +3534,7 @@
       <c r="T113" s="21"/>
       <c r="U113" s="18"/>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A114" s="21"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -3612,7 +3557,7 @@
       <c r="T114" s="21"/>
       <c r="U114" s="18"/>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A115" s="21"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -3635,7 +3580,7 @@
       <c r="T115" s="21"/>
       <c r="U115" s="18"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -3658,7 +3603,7 @@
       <c r="T116" s="21"/>
       <c r="U116" s="18"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -3681,7 +3626,7 @@
       <c r="T117" s="21"/>
       <c r="U117" s="18"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A118" s="21"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -3704,7 +3649,7 @@
       <c r="T118" s="21"/>
       <c r="U118" s="18"/>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A119" s="21"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
@@ -3727,7 +3672,7 @@
       <c r="T119" s="21"/>
       <c r="U119" s="18"/>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="21"/>
@@ -3750,7 +3695,7 @@
       <c r="T120" s="21"/>
       <c r="U120" s="18"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A121" s="21"/>
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
@@ -3773,7 +3718,7 @@
       <c r="T121" s="21"/>
       <c r="U121" s="18"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A122" s="21"/>
       <c r="B122" s="21"/>
       <c r="C122" s="21"/>
@@ -3796,7 +3741,7 @@
       <c r="T122" s="21"/>
       <c r="U122" s="18"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A123" s="21"/>
       <c r="B123" s="21"/>
       <c r="C123" s="21"/>
@@ -3819,7 +3764,7 @@
       <c r="T123" s="21"/>
       <c r="U123" s="18"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A124" s="21"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
@@ -3842,7 +3787,7 @@
       <c r="T124" s="21"/>
       <c r="U124" s="18"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A125" s="21"/>
       <c r="B125" s="21"/>
       <c r="C125" s="21"/>
@@ -3865,7 +3810,7 @@
       <c r="T125" s="21"/>
       <c r="U125" s="18"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="21"/>
@@ -3888,7 +3833,7 @@
       <c r="T126" s="21"/>
       <c r="U126" s="18"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A127" s="21"/>
       <c r="B127" s="21"/>
       <c r="C127" s="21"/>
@@ -3911,7 +3856,7 @@
       <c r="T127" s="21"/>
       <c r="U127" s="18"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A128" s="21"/>
       <c r="B128" s="21"/>
       <c r="C128" s="21"/>
@@ -3934,7 +3879,7 @@
       <c r="T128" s="21"/>
       <c r="U128" s="18"/>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129" s="21"/>
       <c r="B129" s="21"/>
       <c r="C129" s="21"/>
@@ -3957,7 +3902,7 @@
       <c r="T129" s="21"/>
       <c r="U129" s="18"/>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130" s="21"/>
       <c r="B130" s="21"/>
       <c r="C130" s="21"/>
@@ -3980,7 +3925,7 @@
       <c r="T130" s="21"/>
       <c r="U130" s="18"/>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A131" s="21"/>
       <c r="B131" s="21"/>
       <c r="C131" s="21"/>
@@ -4003,7 +3948,7 @@
       <c r="T131" s="21"/>
       <c r="U131" s="18"/>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
@@ -4026,7 +3971,7 @@
       <c r="T132" s="21"/>
       <c r="U132" s="18"/>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A133" s="21"/>
       <c r="B133" s="21"/>
       <c r="C133" s="21"/>
@@ -4049,7 +3994,7 @@
       <c r="T133" s="21"/>
       <c r="U133" s="18"/>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134" s="21"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -4072,7 +4017,7 @@
       <c r="T134" s="21"/>
       <c r="U134" s="18"/>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135" s="21"/>
       <c r="B135" s="21"/>
       <c r="C135" s="21"/>
@@ -4095,7 +4040,7 @@
       <c r="T135" s="21"/>
       <c r="U135" s="18"/>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136" s="21"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
@@ -4118,7 +4063,7 @@
       <c r="T136" s="21"/>
       <c r="U136" s="18"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137" s="21"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21"/>
@@ -4141,7 +4086,7 @@
       <c r="T137" s="21"/>
       <c r="U137" s="18"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138" s="21"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
@@ -4164,7 +4109,7 @@
       <c r="T138" s="21"/>
       <c r="U138" s="18"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139" s="21"/>
       <c r="B139" s="21"/>
       <c r="C139" s="21"/>
@@ -4187,7 +4132,7 @@
       <c r="T139" s="21"/>
       <c r="U139" s="18"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140" s="21"/>
       <c r="B140" s="21"/>
       <c r="C140" s="21"/>
@@ -4210,7 +4155,7 @@
       <c r="T140" s="21"/>
       <c r="U140" s="18"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="21"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -4233,7 +4178,7 @@
       <c r="T141" s="21"/>
       <c r="U141" s="18"/>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142" s="21"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -4256,7 +4201,7 @@
       <c r="T142" s="21"/>
       <c r="U142" s="18"/>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143" s="21"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -4279,7 +4224,7 @@
       <c r="T143" s="21"/>
       <c r="U143" s="18"/>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="21"/>
       <c r="B144" s="21"/>
       <c r="C144" s="21"/>
@@ -4302,7 +4247,7 @@
       <c r="T144" s="21"/>
       <c r="U144" s="18"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A145" s="21"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
@@ -4325,7 +4270,7 @@
       <c r="T145" s="21"/>
       <c r="U145" s="18"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A146" s="21"/>
       <c r="B146" s="21"/>
       <c r="C146" s="21"/>
@@ -4348,7 +4293,7 @@
       <c r="T146" s="21"/>
       <c r="U146" s="18"/>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A147" s="21"/>
       <c r="B147" s="21"/>
       <c r="C147" s="21"/>
@@ -4371,7 +4316,7 @@
       <c r="T147" s="21"/>
       <c r="U147" s="18"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A148" s="21"/>
       <c r="B148" s="21"/>
       <c r="C148" s="21"/>
@@ -4394,7 +4339,7 @@
       <c r="T148" s="21"/>
       <c r="U148" s="18"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A149" s="21"/>
       <c r="B149" s="21"/>
       <c r="C149" s="21"/>
@@ -4417,7 +4362,7 @@
       <c r="T149" s="21"/>
       <c r="U149" s="18"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A150" s="21"/>
       <c r="B150" s="21"/>
       <c r="C150" s="21"/>
@@ -4440,7 +4385,7 @@
       <c r="T150" s="21"/>
       <c r="U150" s="18"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A151" s="21"/>
       <c r="B151" s="21"/>
       <c r="C151" s="21"/>
@@ -4463,7 +4408,7 @@
       <c r="T151" s="21"/>
       <c r="U151" s="18"/>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A152" s="21"/>
       <c r="B152" s="21"/>
       <c r="C152" s="21"/>
@@ -4486,7 +4431,7 @@
       <c r="T152" s="21"/>
       <c r="U152" s="18"/>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A153" s="21"/>
       <c r="B153" s="21"/>
       <c r="C153" s="21"/>
@@ -4509,7 +4454,7 @@
       <c r="T153" s="21"/>
       <c r="U153" s="18"/>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A154" s="21"/>
       <c r="B154" s="21"/>
       <c r="C154" s="21"/>
@@ -4532,7 +4477,7 @@
       <c r="T154" s="21"/>
       <c r="U154" s="18"/>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A155" s="21"/>
       <c r="B155" s="21"/>
       <c r="C155" s="21"/>
@@ -4555,7 +4500,7 @@
       <c r="T155" s="21"/>
       <c r="U155" s="18"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A156" s="21"/>
       <c r="B156" s="21"/>
       <c r="C156" s="21"/>
@@ -4575,7 +4520,7 @@
       <c r="Q156" s="18"/>
       <c r="U156" s="18"/>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A157" s="21"/>
       <c r="B157" s="21"/>
       <c r="C157" s="21"/>
@@ -4595,7 +4540,7 @@
       <c r="Q157" s="18"/>
       <c r="U157" s="18"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A158" s="21"/>
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
@@ -4615,7 +4560,7 @@
       <c r="Q158" s="18"/>
       <c r="U158" s="18"/>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A159" s="21"/>
       <c r="B159" s="21"/>
       <c r="C159" s="21"/>
@@ -4635,7 +4580,7 @@
       <c r="Q159" s="18"/>
       <c r="U159" s="18"/>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A160" s="21"/>
       <c r="B160" s="21"/>
       <c r="C160" s="21"/>
@@ -4655,7 +4600,7 @@
       <c r="Q160" s="18"/>
       <c r="U160" s="18"/>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A161" s="21"/>
       <c r="B161" s="21"/>
       <c r="C161" s="21"/>
@@ -4675,7 +4620,7 @@
       <c r="Q161" s="18"/>
       <c r="U161" s="18"/>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A162" s="21"/>
       <c r="B162" s="21"/>
       <c r="C162" s="21"/>
@@ -4695,7 +4640,7 @@
       <c r="Q162" s="18"/>
       <c r="U162" s="18"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A163" s="21"/>
       <c r="B163" s="21"/>
       <c r="C163" s="21"/>
@@ -4715,7 +4660,7 @@
       <c r="Q163" s="18"/>
       <c r="U163" s="18"/>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A164" s="21"/>
       <c r="B164" s="21"/>
       <c r="C164" s="21"/>
@@ -4735,7 +4680,7 @@
       <c r="Q164" s="18"/>
       <c r="U164" s="18"/>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A165" s="21"/>
       <c r="B165" s="21"/>
       <c r="C165" s="21"/>
@@ -4755,7 +4700,7 @@
       <c r="Q165" s="18"/>
       <c r="U165" s="18"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A166" s="21"/>
       <c r="B166" s="21"/>
       <c r="C166" s="21"/>
@@ -4775,7 +4720,7 @@
       <c r="Q166" s="18"/>
       <c r="U166" s="18"/>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A167" s="21"/>
       <c r="B167" s="21"/>
       <c r="C167" s="21"/>
@@ -4795,7 +4740,7 @@
       <c r="Q167" s="18"/>
       <c r="U167" s="18"/>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A168" s="21"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
@@ -4815,7 +4760,7 @@
       <c r="Q168" s="18"/>
       <c r="U168" s="18"/>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A169" s="21"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -4835,7 +4780,7 @@
       <c r="Q169" s="18"/>
       <c r="U169" s="18"/>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A170" s="21"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -4855,7 +4800,7 @@
       <c r="Q170" s="18"/>
       <c r="U170" s="18"/>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A171" s="21"/>
       <c r="B171" s="21"/>
       <c r="C171" s="21"/>
@@ -4875,7 +4820,7 @@
       <c r="Q171" s="18"/>
       <c r="U171" s="18"/>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A172" s="21"/>
       <c r="B172" s="21"/>
       <c r="C172" s="21"/>
@@ -4895,7 +4840,7 @@
       <c r="Q172" s="18"/>
       <c r="U172" s="18"/>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A173" s="21"/>
       <c r="B173" s="21"/>
       <c r="C173" s="21"/>
@@ -4915,7 +4860,7 @@
       <c r="Q173" s="18"/>
       <c r="U173" s="18"/>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A174" s="21"/>
       <c r="B174" s="21"/>
       <c r="C174" s="21"/>
@@ -4935,7 +4880,7 @@
       <c r="Q174" s="18"/>
       <c r="U174" s="18"/>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A175" s="21"/>
       <c r="B175" s="21"/>
       <c r="C175" s="21"/>
@@ -4955,7 +4900,7 @@
       <c r="Q175" s="18"/>
       <c r="U175" s="18"/>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A176" s="21"/>
       <c r="B176" s="21"/>
       <c r="C176" s="21"/>
@@ -4975,7 +4920,7 @@
       <c r="Q176" s="18"/>
       <c r="U176" s="18"/>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A177" s="21"/>
       <c r="B177" s="21"/>
       <c r="C177" s="21"/>
@@ -4995,7 +4940,7 @@
       <c r="Q177" s="18"/>
       <c r="U177" s="18"/>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A178" s="21"/>
       <c r="B178" s="21"/>
       <c r="C178" s="21"/>
@@ -5015,7 +4960,7 @@
       <c r="Q178" s="18"/>
       <c r="U178" s="18"/>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A179" s="21"/>
       <c r="B179" s="21"/>
       <c r="C179" s="21"/>
@@ -5035,7 +4980,7 @@
       <c r="Q179" s="18"/>
       <c r="U179" s="18"/>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A180" s="21"/>
       <c r="B180" s="21"/>
       <c r="C180" s="21"/>
@@ -5055,7 +5000,7 @@
       <c r="Q180" s="18"/>
       <c r="U180" s="18"/>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A181" s="21"/>
       <c r="B181" s="21"/>
       <c r="C181" s="21"/>
@@ -5075,7 +5020,7 @@
       <c r="Q181" s="18"/>
       <c r="U181" s="18"/>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A182" s="21"/>
       <c r="B182" s="21"/>
       <c r="C182" s="21"/>
@@ -5095,7 +5040,7 @@
       <c r="Q182" s="18"/>
       <c r="U182" s="18"/>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A183" s="21"/>
       <c r="B183" s="21"/>
       <c r="C183" s="21"/>
@@ -5115,7 +5060,7 @@
       <c r="Q183" s="18"/>
       <c r="U183" s="18"/>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A184" s="21"/>
       <c r="B184" s="21"/>
       <c r="C184" s="21"/>
@@ -5135,49 +5080,46 @@
       <c r="Q184" s="18"/>
       <c r="U184" s="18"/>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A185" s="21"/>
       <c r="O185" s="21"/>
       <c r="P185" s="22"/>
       <c r="Q185" s="18"/>
       <c r="U185" s="18"/>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A186" s="21"/>
       <c r="O186" s="21"/>
       <c r="P186" s="22"/>
       <c r="Q186" s="18"/>
       <c r="U186" s="18"/>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A187" s="21"/>
       <c r="P187" s="22"/>
       <c r="Q187" s="18"/>
       <c r="U187" s="18"/>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A188" s="21"/>
       <c r="P188" s="22"/>
       <c r="Q188" s="18"/>
       <c r="U188" s="18"/>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A189" s="21"/>
       <c r="Q189" s="18"/>
       <c r="U189" s="18"/>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A190" s="21"/>
       <c r="Q190" s="18"/>
       <c r="U190" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U10">
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-  </autoFilter>
+  <autoFilter ref="A1:U10"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VersionRecords/Version 5.1.0.1 20161110/版本Bug和特性计划及评审表v5.1.0.1_极光组.xlsx
+++ b/VersionRecords/Version 5.1.0.1 20161110/版本Bug和特性计划及评审表v5.1.0.1_极光组.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>No</t>
   </si>
@@ -111,11 +111,27 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>BS，partnerpc ,partnerapp</t>
+    <t>Fix Bug</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Fix Bug</t>
+    <t>BS/定时器，partnerpc ,partnerapp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及的定时器syncJycRenterBillStatus.sh</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -861,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -886,7 +902,7 @@
     <col min="18" max="18" width="12" style="8" customWidth="1"/>
     <col min="19" max="19" width="17" style="8" customWidth="1"/>
     <col min="20" max="20" width="14.125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="16.625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="22.375" style="7" customWidth="1"/>
     <col min="22" max="22" width="8.875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
@@ -956,7 +972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="41.25" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -970,10 +986,10 @@
         <v>27</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>21</v>
@@ -994,14 +1010,24 @@
       <c r="M2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="23"/>
+      <c r="N2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="14">
+        <v>42684</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>33</v>
+      </c>
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
-      <c r="U2" s="23"/>
+      <c r="U2" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="V2" s="30"/>
     </row>
     <row r="3" spans="1:22" s="4" customFormat="1" ht="22.5" customHeight="1">
